--- a/Mobile/coyni_mobile/resources/TestScript_Merchant_Sanity.xlsx
+++ b/Mobile/coyni_mobile/resources/TestScript_Merchant_Sanity.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COYNIv_2.3_Merchant\24-Mar(V2.3)Merchant\coyni-automation\Mobile\coyni_mobile\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COYNIv_2.3_Merchant\17-Apr-2023(Merchant)\coyni-automation\Mobile\coyni_mobile\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AA9502-1BD7-49DC-9682-FF894BD042E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B837C76B-6E11-497C-8BA5-82F5CDF71C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -837,7 +837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>

--- a/Mobile/coyni_mobile/resources/TestScript_Merchant_Sanity.xlsx
+++ b/Mobile/coyni_mobile/resources/TestScript_Merchant_Sanity.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COYNIv_2.3_Merchant\17-Apr-2023(Merchant)\coyni-automation\Mobile\coyni_mobile\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COYNIv_2.3_Merchant\19-apr-2023(Merchant)\coyni-automation\Mobile\coyni_mobile\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B837C76B-6E11-497C-8BA5-82F5CDF71C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830B76F9-5813-494F-81C1-9D2892F6306E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -837,7 +837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
